--- a/medicine/Psychotrope/Le_Petit_Vapoteur/Le_Petit_Vapoteur.xlsx
+++ b/medicine/Psychotrope/Le_Petit_Vapoteur/Le_Petit_Vapoteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Petit Vapoteur est une entreprise normande spécialisée dans la vente de cigarettes électroniques[2], qui a réalisé un chiffre d'affaires de 115 millions d'euros en 2022. 
-Le Petit Vapoteur détient un réseau de 80 magasins en France[3]. L'entreprise compte 380 salariés et plus de 2 millions de clients[4].
+Le Petit Vapoteur est une entreprise normande spécialisée dans la vente de cigarettes électroniques, qui a réalisé un chiffre d'affaires de 115 millions d'euros en 2022. 
+Le Petit Vapoteur détient un réseau de 80 magasins en France. L'entreprise compte 380 salariés et plus de 2 millions de clients.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Petit Vapoteur est créé par deux Cherbourgeois, Olivier Drean et Tanguy Gréard, en 2010. 
 En 2013, en parallèle du site internet, Le Petit Vapoteur ouvre son premier magasin à Cherbourg dans la Manche (50) et lance son unité de production en 2016, pour créer ses propres gammes de liquides à vapoter.
-En 2018, l’entreprise poursuit son évolution avec un entrepôt de plus de 6 000 m2. L’entreprise prend la deuxième place du classement Inc. 5000 Europe qui récompense les entreprises européennes ayant connu les plus fortes croissances[5].  
-En avril 2023, l’entreprise devient une société à mission, évolution qui fait suite, selon le Journal du dimanche, à un accent mis sur la « responsabilité sociale, sociétale et environnementale »[6]. L'événement du Black Fairday en fait partie, qui se veut un contre-pied durable au Black Friday. L'entreprise reverse le chiffre d'affaires d'une « journée de solidarité » à une association à but non lucratif[7].
+En 2018, l’entreprise poursuit son évolution avec un entrepôt de plus de 6 000 m2. L’entreprise prend la deuxième place du classement Inc. 5000 Europe qui récompense les entreprises européennes ayant connu les plus fortes croissances.  
+En avril 2023, l’entreprise devient une société à mission, évolution qui fait suite, selon le Journal du dimanche, à un accent mis sur la « responsabilité sociale, sociétale et environnementale ». L'événement du Black Fairday en fait partie, qui se veut un contre-pied durable au Black Friday. L'entreprise reverse le chiffre d'affaires d'une « journée de solidarité » à une association à but non lucratif.
 </t>
         </is>
       </c>
